--- a/NodeSamples/测试节点/Pearce0.xlsx
+++ b/NodeSamples/测试节点/Pearce0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\NodeSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\NodeSamples\测试节点\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F00D46-7231-416A-A9BC-174C9D3EDE82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300727AC-1C5E-41A4-B191-52E8F97309E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1755" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="21600" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表3" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>Author</t>
   </si>
@@ -502,6 +502,10 @@
   </si>
   <si>
     <t>Nodes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -995,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC47B8B1-FF18-6F43-9034-BB1C05C25552}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L18"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -1010,8 +1014,8 @@
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1041,10 +1045,10 @@
         <v>80</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>83</v>
@@ -1058,13 +1062,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -1073,16 +1077,16 @@
         <v>57</v>
       </c>
       <c r="G2" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H2" s="14">
         <v>2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="14">
+        <v>80</v>
+      </c>
+      <c r="J2" s="8">
         <v>0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>80</v>
       </c>
       <c r="K2" s="8">
         <v>0</v>
@@ -1096,13 +1100,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1111,16 +1115,16 @@
         <v>57</v>
       </c>
       <c r="G3" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="14">
-        <v>55</v>
-      </c>
-      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="8">
         <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>300</v>
       </c>
       <c r="K3" s="8">
         <v>0</v>
@@ -1135,13 +1139,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1150,16 +1154,16 @@
         <v>57</v>
       </c>
       <c r="G4" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="14">
-        <v>400</v>
-      </c>
-      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
         <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>2000</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
@@ -1168,18 +1172,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="20.25">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -1188,16 +1192,16 @@
         <v>57</v>
       </c>
       <c r="G5" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="14">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8">
+        <v>50</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
         <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <v>2000</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
@@ -1211,13 +1215,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -1226,16 +1230,16 @@
         <v>57</v>
       </c>
       <c r="G6" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H6" s="14">
-        <v>400</v>
-      </c>
-      <c r="I6" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="I6" s="14">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8">
         <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <v>2000</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
@@ -1249,13 +1253,13 @@
         <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1264,16 +1268,16 @@
         <v>57</v>
       </c>
       <c r="G7" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H7" s="14">
         <v>55</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="14">
+        <v>300</v>
+      </c>
+      <c r="J7" s="8">
         <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <v>300</v>
       </c>
       <c r="K7" s="8">
         <v>0</v>
@@ -1287,13 +1291,13 @@
         <v>84</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -1302,16 +1306,16 @@
         <v>57</v>
       </c>
       <c r="G8" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H8" s="14">
-        <v>51.5</v>
-      </c>
-      <c r="I8" s="8">
+        <v>400</v>
+      </c>
+      <c r="I8" s="14">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="8">
         <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <v>8</v>
       </c>
       <c r="K8" s="8">
         <v>0</v>
@@ -1325,13 +1329,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1340,16 +1344,16 @@
         <v>57</v>
       </c>
       <c r="G9" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="14">
         <v>2000</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="14">
+        <v>400</v>
+      </c>
+      <c r="J9" s="8">
         <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>400</v>
       </c>
       <c r="K9" s="8">
         <v>0</v>
@@ -1363,13 +1367,13 @@
         <v>84</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1378,16 +1382,16 @@
         <v>57</v>
       </c>
       <c r="G10" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="14">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
         <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>80</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
@@ -1401,13 +1405,13 @@
         <v>84</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1416,16 +1420,16 @@
         <v>57</v>
       </c>
       <c r="G11" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="14">
-        <v>55</v>
-      </c>
-      <c r="I11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="8">
         <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>300</v>
       </c>
       <c r="K11" s="8">
         <v>0</v>
@@ -1435,270 +1439,102 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" ht="20.25">
-      <c r="A12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="14">
-        <v>51.5</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>8</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" ht="20.25">
-      <c r="A13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H13" s="14">
-        <v>50</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="20.25">
-      <c r="A14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H14" s="14">
-        <v>2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" s="9" customFormat="1" ht="20.25">
-      <c r="A15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H15" s="14">
-        <v>50</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" ht="20.25">
-      <c r="A16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="14">
-        <v>51.5</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>8</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="14">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
-        <v>400</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="7">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2000</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" s="9" customFormat="1" ht="20.25">
       <c r="A19" s="7"/>
@@ -1714,119 +1550,10 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" s="9" customFormat="1" ht="20.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:L19">
+    <sortCondition ref="H1"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3434,5 +3161,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>